--- a/dynare/reg_model_v2_inv_SS.xlsx
+++ b/dynare/reg_model_v2_inv_SS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE0C8D-4535-4556-BFC7-E035BFD1BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="232" uniqueCount="58">
   <si>
     <t>alpha1</t>
   </si>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -223,12 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,16 +236,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,7 +418,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -440,9 +442,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -466,7 +468,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -501,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -519,7 +521,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -544,7 +546,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -560,332 +562,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+        <v>0.79000000000000004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+        <v>0.025000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+        <v>0.65000000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+        <v>0.65000000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.66917256857768748</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0.318</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.70760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+        <v>0.095000000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>4.3956740882165919</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1.3702946478262759</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0.21750788643533145</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0.16313091482649858</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2.0979333766489998</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1.1092581581836585</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>2.2119447778307291</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>1.9773445741214091</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>0.14424658165856016</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>1.3741384884315468</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0.58315866285002504</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>0.21622772465748483</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>23.326346514000999</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>8.6491089862993924</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>0.63380411825103311</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0.97241409440418303</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -893,7 +895,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -901,7 +903,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -909,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -917,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -925,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -933,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -941,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -949,7 +951,7 @@
         <v>1.996864818769237</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -957,23 +959,23 @@
         <v>1.3688293017167155</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>4.0228426395939043E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>4.0228426395939043E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -981,7 +983,7 @@
         <v>2.2208333461466796</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -989,7 +991,7 @@
         <v>0.8348913368410632</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -997,7 +999,7 @@
         <v>2.6810920394990245</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>1.3254858828411433</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>4.0065779223401679</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>0.70760000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -1038,6 +1040,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>